--- a/GUI + Reviews/202503/Developed Market.xlsx
+++ b/GUI + Reviews/202503/Developed Market.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202503\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202503/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1585C7F8-793A-40DA-9D25-5D21996C6A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28530" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{55E1B219-E43B-4FF8-A49F-37EA82F17A1F}"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15840" xr2:uid="{55E1B219-E43B-4FF8-A49F-37EA82F17A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14723,7 +14723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DBDFA6-8ACF-46B1-986C-8B78F48A2240}">
   <dimension ref="A1:K1548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1511" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
